--- a/mcmaster_excel/Impact-Resistant_Polycarbonate_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Impact-Resistant_Polycarbonate_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,191 +434,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.170"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.063"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>TemperatureRange, °F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Clear</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>93140A300</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$12.16</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.170"</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.063"</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-40° to 210°</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>93140A305</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>Polycarbonate Plastic</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +582,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>93140A310</t>
+          <t>93140A300</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>$12.16</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -671,16 +595,12 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +640,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>93140A315</t>
+          <t>93140A305</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -733,16 +653,12 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +698,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>93140A320</t>
+          <t>93140A310</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11.72</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -795,16 +711,12 @@
           <t>2-56</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -814,12 +726,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.170"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -839,34 +751,30 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>93140A403</t>
+          <t>93140A315</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>23.46</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>2-56</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -876,12 +784,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.170"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -901,34 +809,30 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>93140A106</t>
+          <t>93140A320</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>11.72</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>2-56</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,12 +872,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>93140A108</t>
+          <t>93140A403</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>23.13</t>
+          <t>23.46</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -981,16 +885,12 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1025,17 +925,17 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>93140A109</t>
+          <t>93140A106</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12.39</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1043,16 +943,12 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1062,12 +958,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.215"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.075"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1077,7 +973,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-60° to 210°</t>
+          <t>-40° to 210°</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1087,17 +983,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>93140A277</t>
+          <t>93140A108</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>23.13</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1105,16 +1001,12 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1124,17 +1016,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1154,29 +1046,25 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>93140A144</t>
+          <t>93140A109</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.39</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>6-32</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1186,22 +1074,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.215"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.075"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>-60° to 210°</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1216,29 +1104,25 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>93140A146</t>
+          <t>93140A277</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>6-32</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1162,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>93140A148</t>
+          <t>93140A144</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1291,16 +1175,12 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1310,22 +1190,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.263"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.092"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-60° to 210°</t>
+          <t>-40° to 210°</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1340,12 +1220,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>93140A381</t>
+          <t>93140A146</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1353,16 +1233,12 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1372,12 +1248,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.263"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.092"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1387,7 +1263,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-60° to 210°</t>
+          <t>-40° to 210°</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1402,12 +1278,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>93140A427</t>
+          <t>93140A148</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1415,16 +1291,12 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1434,22 +1306,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.263"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.092"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>-60° to 210°</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1464,29 +1336,25 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>93140A166</t>
+          <t>93140A381</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8-32</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1496,12 +1364,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.263"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.092"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1511,7 +1379,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>-60° to 210°</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1526,29 +1394,25 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>93140A169</t>
+          <t>93140A427</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>13.21</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8-32</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1558,12 +1422,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1573,7 +1437,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-60° to 210°</t>
+          <t>-40° to 210°</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1588,12 +1452,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>93140A588</t>
+          <t>93140A166</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1601,16 +1465,12 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1620,12 +1480,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1635,7 +1495,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-60° to 210°</t>
+          <t>-40° to 210°</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1650,12 +1510,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>93140A614</t>
+          <t>93140A169</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>13.21</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1663,16 +1523,12 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1712,7 +1568,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>93140A782</t>
+          <t>93140A588</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1725,16 +1581,12 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1744,12 +1596,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1759,7 +1611,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>-60° to 210°</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1774,29 +1626,25 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>93140A173</t>
+          <t>93140A614</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>14.17</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10-32</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1806,12 +1654,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1821,7 +1669,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>-60° to 210°</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1836,29 +1684,25 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>93140A175</t>
+          <t>93140A782</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>14.35</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10-32</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,12 +1742,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>93140A178</t>
+          <t>93140A173</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>14.17</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1911,16 +1755,12 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,12 +1800,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>93140A181</t>
+          <t>93140A175</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>14.35</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1973,16 +1813,12 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1858,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>93140A184</t>
+          <t>93140A178</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>14.65</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2035,16 +1871,12 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2084,12 +1916,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>93140A187</t>
+          <t>93140A181</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2097,16 +1929,12 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2116,22 +1944,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.485"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.165"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-60° to 210°</t>
+          <t>-40° to 210°</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2141,34 +1969,30 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>93140A794</t>
+          <t>93140A184</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2178,22 +2002,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.485"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.165"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-60° to 210°</t>
+          <t>-40° to 210°</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2203,34 +2027,30 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>93140A832</t>
+          <t>93140A187</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>13.43</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2240,12 +2060,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.485"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.165"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2255,7 +2075,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>-60° to 210°</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2270,12 +2090,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>93140A239</t>
+          <t>93140A794</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2283,16 +2103,12 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2302,12 +2118,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.505"</t>
+          <t>0.485"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.165"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2317,7 +2133,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-40° to 210°</t>
+          <t>-60° to 210°</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2332,12 +2148,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>93140A246</t>
+          <t>93140A832</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2345,73 +2161,181 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.505"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.180"</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-40° to 210°</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>93140A239</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.505"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.180"</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-40° to 210°</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>93140A246</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>0.485"</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>0.165"</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-60° to 210°</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Clear</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>93140A952</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>13.43</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Polycarbonate Plastic</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
